--- a/biology/Zoologie/Chaoyangopteridae/Chaoyangopteridae.xlsx
+++ b/biology/Zoologie/Chaoyangopteridae/Chaoyangopteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chaoyangopteridae sont une famille fossile de ptérosaures Azhdarchoidea, ayant vécu au Crétacé inférieur.
 </t>
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Chaoyangopteridae a été défini pour la première fois en 2008 par Lü Junchang et David Unwin comme : « Chaoyangopterus, Shenzhoupterus, leur dernier ancêtre commun et tous les taxons plus étroitement liés à ce clade qu'à Tapejara, Tupuxuara ou Quetzalcoatlus »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Chaoyangopteridae a été défini pour la première fois en 2008 par Lü Junchang et David Unwin comme : « Chaoyangopterus, Shenzhoupterus, leur dernier ancêtre commun et tous les taxons plus étroitement liés à ce clade qu'à Tapejara, Tupuxuara ou Quetzalcoatlus ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chaoyangopteridae sont principalement connus en Asie, bien que le possible membre Lacusovagus se trouve en Amérique du Sud[2] et il existe de possibles restes fossiles en Afrique, y compris le possible membre Apatorhamphus[3]. Microtuban pourrait prolonger l'existence du clade jusqu'au début du Crétacé supérieur[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chaoyangopteridae sont principalement connus en Asie, bien que le possible membre Lacusovagus se trouve en Amérique du Sud et il existe de possibles restes fossiles en Afrique, y compris le possible membre Apatorhamphus. Microtuban pourrait prolonger l'existence du clade jusqu'au début du Crétacé supérieur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chaoyangoptéridés se distinguent des autres ptérosaures par plusieurs caractéristiques de la fenêtre nasoantorbitale, un grand trou sur le côté du museau formé par l'assimilation des narines (trous de narine) dans la fenêtre antéorbitaire. Chez les membres de cette famille, la fenêtre nasoantorbitale est massive, avec le bord arrière s'étendant aussi loin que la boîte crânienne et l'articulation de la mâchoire. Le bord avant est formé par une tige d'os connue sous le nom de barre prémaxillaire, qui est inhabituellement mince chez les membres de cette famille[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chaoyangoptéridés se distinguent des autres ptérosaures par plusieurs caractéristiques de la fenêtre nasoantorbitale, un grand trou sur le côté du museau formé par l'assimilation des narines (trous de narine) dans la fenêtre antéorbitaire. Chez les membres de cette famille, la fenêtre nasoantorbitale est massive, avec le bord arrière s'étendant aussi loin que la boîte crânienne et l'articulation de la mâchoire. Le bord avant est formé par une tige d'os connue sous le nom de barre prémaxillaire, qui est inhabituellement mince chez les membres de cette famille.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme leurs parents azhdarchidés, les chaoyangoptéridés étaient des prédateurs terrestres[4],[5].
-Sur la base des proportions du cou et des membres, il a été suggéré qu'ils occupaient une niche écologique similaire à celle des ptérosaures azhdarchidés[6], bien qu'il soit possible qu'ils soient plus spécialisés car plusieurs genres se trouvent au Liaoning en Chine, tandis que les azhdarchidés se trouvent généralement par un genre à un endroit spécifique[pas clair]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme leurs parents azhdarchidés, les chaoyangoptéridés étaient des prédateurs terrestres,.
+Sur la base des proportions du cou et des membres, il a été suggéré qu'ils occupaient une niche écologique similaire à celle des ptérosaures azhdarchidés, bien qu'il soit possible qu'ils soient plus spécialisés car plusieurs genres se trouvent au Liaoning en Chine, tandis que les azhdarchidés se trouvent généralement par un genre à un endroit spécifique[pas clair]. 
 </t>
         </is>
       </c>
